--- a/data/mistakes/marmot_XPOS_mistakes.xlsx
+++ b/data/mistakes/marmot_XPOS_mistakes.xlsx
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>matki</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>i matki Ewy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>brev:npun</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>matki</t>
+          <t>Pinińskich</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>i matki Ewy</t>
+          <t>z Pinińskich właścicieli</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pinińskich</t>
+          <t>Dóbr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>z Pinińskich właścicieli</t>
+          <t>właścicieli Dóbr Strużewo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:pl:gen:n:pt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -786,17 +786,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dóbr</t>
+          <t>Strużewo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>właścicieli Dóbr Strużewo</t>
+          <t>Dóbr Strużewo z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:pt</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strużewo</t>
+          <t>Dąbrowy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dóbr Strużewo z</t>
+          <t>, Dąbrowy części</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dąbrowy</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>, Dąbrowy części</t>
+          <t>że śp Dziad</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>brev:npun</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>że śp Dziad</t>
+          <t>śp Dziad mój</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>brev:npun</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>śp Dziad mój</t>
+          <t>Dziad mój był</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>był</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dziad mój był</t>
+          <t>mój był najmłodszy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>był</t>
+          <t>pomiędzy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mój był najmłodszy</t>
+          <t>z pomiędzy Rodzeństwa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>prep:acc</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>prep:inst</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pomiędzy</t>
+          <t>najstarszemu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>z pomiędzy Rodzeństwa</t>
+          <t>część najstarszemu bratu</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>adj:sg:dat:m1:sup</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>prep:inst</t>
+          <t>adj:pl:gen:m3:sup</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>najstarszemu</t>
+          <t>bratu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>część najstarszemu bratu</t>
+          <t>najstarszemu bratu swojemu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>adj:sg:dat:m1:sup</t>
+          <t>subst:sg:dat:m1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m3:sup</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bratu</t>
+          <t>ośm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>najstarszemu bratu swojemu</t>
+          <t>za ośm tysięcy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m1</t>
+          <t>num:pl:acc:m3:rec:ncol</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ośm</t>
+          <t>tynfów</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>za ośm tysięcy</t>
+          <t>tysięcy tynfów .</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec:ncol</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tynfów</t>
+          <t>Stryjów</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>tysięcy tynfów .</t>
+          <t>. Stryjów miał</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Stryjów</t>
+          <t>miał</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>. Stryjów miał</t>
+          <t>Stryjów miał śp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>miał</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Stryjów miał śp</t>
+          <t>miał śp .</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>brev:pun</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Melchior</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>miał śp .</t>
+          <t>. Melchior czterech</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Melchior</t>
+          <t>czterech</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>. Melchior czterech</t>
+          <t>Melchior czterech i</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>num:pl:gen:m1:congr</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>czterech</t>
+          <t>ożenionego</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Melchior czterech i</t>
+          <t>Wawrzyńca ożenionego z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>ppas:sg:acc:m1:perf:aff</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>num:pl:gen:m1:congr</t>
+          <t>ppas:sg:gen:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ożenionego</t>
+          <t>trzech</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wawrzyńca ożenionego z</t>
+          <t>niej trzech synów</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:m1:perf:aff</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ppas:sg:gen:m3:perf:aff</t>
+          <t>num:pl:nom:m1:rec</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>trzech</t>
+          <t>synów</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>niej trzech synów</t>
+          <t>trzech synów Jakuba</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>num:pl:nom:m1:rec</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>synów</t>
+          <t>Jakuba</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>trzech synów Jakuba</t>
+          <t>synów Jakuba ,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jakuba</t>
+          <t>Łukasza</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>synów Jakuba ,</t>
+          <t>, Łukasza i</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Łukasza</t>
+          <t>Floyrana</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>, Łukasza i</t>
+          <t>i Floyrana .</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Floyrana</t>
+          <t>syna</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>i Floyrana .</t>
+          <t>mieli syna Ludwika</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>syna</t>
+          <t>Ludwika</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>mieli syna Ludwika</t>
+          <t>syna Ludwika –</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ludwika</t>
+          <t>wszystkich</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>syna Ludwika –</t>
+          <t>– wszystkich braci</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:pl:acc:m1:pos</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wszystkich</t>
+          <t>braci</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>– wszystkich braci</t>
+          <t>wszystkich braci stryjecznych</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m1:pos</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>braci</t>
+          <t>stryjecznych</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wszystkich braci stryjecznych</t>
+          <t>braci stryjecznych śp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>adj:pl:acc:m1:pos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>stryjecznych</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>braci stryjecznych śp</t>
+          <t>było 17 .</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m1:pos</t>
+          <t>num:pl:nom:m1:rec</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>Antonich</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>było 17 .</t>
+          <t>. Antonich było</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>num:pl:nom:m1:rec</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Antonich</t>
+          <t>brat</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>. Antonich było</t>
+          <t>dwóch brat Jana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>subst:sg:nom:m1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>subst:pl:gen:m1</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>Melchiora</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>dwóch brat Jana</t>
+          <t>brat Melchiora .</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>subst:sg:gen:m1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>subst:sg:nom:m1</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Melchiora</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brat Melchiora .</t>
+          <t>. Niewiem o</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>fin:sg:pri:imperf</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>jakoby</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>. Niewiem o</t>
+          <t>– jakoby Dziad</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>fin:sg:pri:imperf</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jego</t>
+          <t>okazał</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>przyszłości jego .</t>
+          <t>jaki okazał mój</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m1:ter:akc:npraep</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:m1:ter:akc:npraep</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>okazał</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>jaki okazał mój</t>
+          <t>okazał mój Dziad</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>okazał mój Dziad</t>
+          <t>mój Dziad Panu</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>piękny</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>mój Dziad Panu</t>
+          <t>czasy piękny –</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>piękny</t>
+          <t>ujęty</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>czasy piękny –</t>
+          <t>że ujęty tem</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ujęty</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>że ujęty tem</t>
+          <t>ujęty tem zaproponował</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m3:perf:aff</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ujęty tem zaproponował</t>
+          <t>mogło to być</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>Czołhany</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>mogło to być</t>
+          <t>dzierżawę Czołhany w</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Czołhany</t>
+          <t>Halickim</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>dzierżawę Czołhany w</t>
+          <t>w Halickim ,</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>adj:sg:loc:m3:pos</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Halickim</t>
+          <t>Kobylską</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>w Halickim ,</t>
+          <t>Panną Kobylską ,</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>adj:sg:loc:m3:pos</t>
+          <t>subst:sg:inst:f</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kobylską</t>
+          <t>trzech</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Panną Kobylską ,</t>
+          <t>nią trzech synów</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>subst:sg:inst:f</t>
+          <t>num:pl:acc:m1:congr</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>adj:sg:inst:f:pos</t>
+          <t>num:pl:nom:m1:rec</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>trzech</t>
+          <t>synów</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>nią trzech synów</t>
+          <t>trzech synów Michała</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>num:pl:acc:m1:congr</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>num:pl:nom:m1:rec</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>synów</t>
+          <t>Michała</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>trzech synów Michała</t>
+          <t>synów Michała ,</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Michała</t>
+          <t>Józefa</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>synów Michała ,</t>
+          <t>, Józefa i</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Józefa</t>
+          <t>Kazimierza</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>, Józefa i</t>
+          <t>i Kazimierza –</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kazimierza</t>
+          <t>owdowiał</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>i Kazimierza –</t>
+          <t>niebawem owdowiał .</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>owdowiał</t>
+          <t>wołami</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>niebawem owdowiał .</t>
+          <t>za wołami .</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:pl:inst:m2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:pl:inst:f</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>wołami</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>za wołami .</t>
+          <t>Posadzie Chyrowskiey zapędziły</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m2</t>
+          <t>adj:sg:loc:f:pos</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>subst:pl:inst:f</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chyrowskiey</t>
+          <t>zapędziły</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Posadzie Chyrowskiey zapędziły</t>
+          <t>Chyrowskiey zapędziły się</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>adj:sg:loc:f:pos</t>
+          <t>praet:pl:m2:perf</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>praet:pl:f:perf</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zapędziły</t>
+          <t>woły</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chyrowskiey zapędziły się</t>
+          <t>się woły w</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>praet:pl:m2:perf</t>
+          <t>subst:pl:nom:m2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>praet:pl:f:perf</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>woły</t>
+          <t>parę</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>się woły w</t>
+          <t>i parę sztuk</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m2</t>
+          <t>num:pl:acc:f:rec</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>num:pl:nom:f:rec</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>parę</t>
+          <t>Dzianott</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>i parę sztuk</t>
+          <t>domu Dzianott wdowa</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>num:pl:acc:f:rec</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>num:pl:nom:f:rec</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dzianott</t>
+          <t>wdowa</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>domu Dzianott wdowa</t>
+          <t>Dzianott wdowa po</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>wdowa</t>
+          <t>dwóch</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dzianott wdowa po</t>
+          <t>po dwóch mężach</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>num:pl:loc:m1:congr</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>num:pl:loc:m3:congr</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dwóch</t>
+          <t>mężach</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>po dwóch mężach</t>
+          <t>dwóch mężach –</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>num:pl:loc:m1:congr</t>
+          <t>subst:pl:loc:m1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>num:pl:loc:m3:congr</t>
+          <t>subst:pl:loc:m3</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>mężach</t>
+          <t>by</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>dwóch mężach –</t>
+          <t>dworu by zapłacić</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m1</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m3</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>wynagrodzeniu</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>dworu by zapłacić</t>
+          <t>o wynagrodzeniu nie</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ger:sg:loc:n:perf:aff</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>wynagrodzeniu</t>
+          <t>starym</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>o wynagrodzeniu nie</t>
+          <t>z starym winem</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>subst:sg:loc:n:ncol</t>
+          <t>adj:sg:inst:n:pos</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ger:sg:loc:n:perf:aff</t>
+          <t>adj:sg:inst:m3:pos</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>starym</t>
+          <t>winem</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>z starym winem</t>
+          <t>starym winem –</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>adj:sg:inst:n:pos</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>adj:sg:inst:m3:pos</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>winem</t>
+          <t>rada</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>starym winem –</t>
+          <t>– rada była</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rada</t>
+          <t>gosposia</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>– rada była</t>
+          <t>była gosposia gościowi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>subst:sg:nom:f</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>adj:sg:nom:f:pos</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>gosposia</t>
+          <t>gościowi</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>była gosposia gościowi</t>
+          <t>gosposia gościowi a</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:dat:m1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:dat:m3</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>gościowi</t>
+          <t>oko</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>gosposia gościowi a</t>
+          <t>w oko –</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m1</t>
+          <t>subst:sg:acc:n:col</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>subst:sg:dat:m3</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>oko</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>w oko –</t>
+          <t>wiesz Asińdźka co</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:col</t>
+          <t>subst:sg:voc:f</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Asińdźka</t>
+          <t>co</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>wiesz Asińdźka co</t>
+          <t>Asińdźka co ?</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>subst:sg:voc:f</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>wdowa</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Asińdźka co ?</t>
+          <t>Jesteś wdowa –</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>wdowa</t>
+          <t>wdowiec</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Jesteś wdowa –</t>
+          <t>ja wdowiec –</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>inf:perf</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>wdowiec</t>
+          <t>Ja</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ja wdowiec –</t>
+          <t>„ Ja już</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>ppron12:sg:nom:f:pri</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>inf:perf</t>
+          <t>ppron12:sg:nom:m1:pri</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>że</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>„ Ja już</t>
+          <t>ale że mi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ppron12:sg:nom:f:pri</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ppron12:sg:nom:m1:pri</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>że</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ale że mi</t>
+          <t>że mi się</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>ppron12:sg:dat:f:pri:nakc</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppron12:sg:dat:m1:pri:nakc</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>Waszmość</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>że mi się</t>
+          <t>się Waszmość podobał</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:f:pri:nakc</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:m1:pri:nakc</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Waszmość</t>
+          <t>podobał</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>się Waszmość podobał</t>
+          <t>Waszmość podobał eś</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>podobał</t>
+          <t>ucałował</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Waszmość podobał eś</t>
+          <t>, ucałował rączkę</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>praet:sg:m1:perf</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>praet:sg:m1:imperf</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ucałował</t>
+          <t>Pannie</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>, ucałował rączkę</t>
+          <t>wstąpi Pannie się</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pannie</t>
+          <t>dwie</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>wstąpi Pannie się</t>
+          <t>były dwie córki</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>num:pl:nom:f:congr</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>num:pl:acc:f:congr</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>dwie</t>
+          <t>córki</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>były dwie córki</t>
+          <t>dwie córki i</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>num:pl:nom:f:congr</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>num:pl:acc:f:congr</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>córki</t>
+          <t>Starsi</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>dwie córki i</t>
+          <t>. Starsi bracia</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>adj:pl:nom:m1:com</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Starsi</t>
+          <t>mojego</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>. Starsi bracia</t>
+          <t>bracia mojego Ojca</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:com</t>
+          <t>adj:sg:gen:m1:pos</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:pos</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>mojego</t>
+          <t>Ojca</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>bracia mojego Ojca</t>
+          <t>mojego Ojca pokończywszy</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m1:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ojca</t>
+          <t>nauki</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>mojego Ojca pokończywszy</t>
+          <t>pokończywszy nauki osiedli</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nauki</t>
+          <t>osiedli</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>pokończywszy nauki osiedli</t>
+          <t>nauki osiedli na</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>praet:pl:m1:perf</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>osiedli</t>
+          <t>córki</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>nauki osiedli na</t>
+          <t>a córki w</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>praet:pl:m1:perf</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>córki</t>
+          <t>pono</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>a córki w</t>
+          <t>która pono w</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>imps:perf</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>bawiły</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>która pono w</t>
+          <t>, bawiły pod</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>praet:pl:f:imperf</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>imps:perf</t>
+          <t>praet:pl:f:perf</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>bawiły</t>
+          <t>Czermińskiej</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>, bawiły pod</t>
+          <t>starościny Czermińskiej we</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>praet:pl:n:imperf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>praet:pl:f:perf</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Czermińskiej</t>
+          <t>mąż</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>starościny Czermińskiej we</t>
+          <t>za mąż jedna</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>frag</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>mąż</t>
+          <t>szambelanica</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>za mąż jedna</t>
+          <t>– szambelanica ,</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>frag</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>szambelanica</t>
+          <t>druga</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>– szambelanica ,</t>
+          <t>, druga za</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>druga</t>
+          <t>Świeżawskiego</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>, druga za</t>
+          <t>za Świeżawskiego komornika</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Świeżawskiego</t>
+          <t>komornika</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>za Świeżawskiego komornika</t>
+          <t>Świeżawskiego komornika ziemskiego</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>komornika</t>
+          <t>ziemskiego</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Świeżawskiego komornika ziemskiego</t>
+          <t>komornika ziemskiego i</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>adj:sg:acc:m1:pos</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ziemskiego</t>
+          <t>był</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>komornika ziemskiego i</t>
+          <t>Tretera był szambelanem</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m1:pos</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>był</t>
+          <t>szambelanem</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tretera był szambelanem</t>
+          <t>był szambelanem za</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:inst:m1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>szambelanem</t>
+          <t>za</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>był szambelanem za</t>
+          <t>szambelanem za Stan</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m1</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>za</t>
+          <t>wielki</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>szambelanem za Stan</t>
+          <t>– wielki literat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>wielki</t>
+          <t>literat</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>– wielki literat</t>
+          <t>wielki literat .</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>literat</t>
+          <t>oddał</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>wielki literat .</t>
+          <t>swój oddał akademii</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>oddał</t>
+          <t>akademii</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>swój oddał akademii</t>
+          <t>oddał akademii we</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>akademii</t>
+          <t>Abbum</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>oddał akademii we</t>
+          <t>drzwiami Abbum Treterianum</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>Treterianum</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>drzwiami Abbum Treterianum</t>
+          <t>Abbum Treterianum .</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>Lwowa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Abbum Treterianum .</t>
+          <t>bombardowaniu Lwowa roku</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adj:sg:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lwowa</t>
+          <t>więc</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>bombardowaniu Lwowa roku</t>
+          <t>– więc i</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>adj:sg:nom:f:pos</t>
+          <t>conj</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>więc</t>
+          <t>zbiory</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>– więc i</t>
+          <t>i zbiory te</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>zbiory</t>
+          <t>te</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>i zbiory te</t>
+          <t>zbiory te zniszczały</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>adj:pl:nom:m3:pos</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>zniszczały</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>zbiory te zniszczały</t>
+          <t>te zniszczały .</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m3:pos</t>
+          <t>praet:pl:m3:perf</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>zniszczały</t>
+          <t>Syn</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>te zniszczały .</t>
+          <t>. Syn jego</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>praet:pl:m3:perf</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Syn</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>. Syn jego</t>
+          <t>a mój wuj</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>wuj</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a mój wuj</t>
+          <t>mój wuj był</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>wuj</t>
+          <t>był</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>mój wuj był</t>
+          <t>wuj był to</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>był</t>
+          <t>fantasta</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>wuj był to</t>
+          <t>to fantasta –</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>fantasta</t>
+          <t>oryginał</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>to fantasta –</t>
+          <t>– oryginał jakich</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>oryginał</t>
+          <t>jakich</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>– oryginał jakich</t>
+          <t>oryginał jakich dziś</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>adj:pl:gen:n:pos</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>jakich</t>
+          <t>i</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>oryginał jakich dziś</t>
+          <t>bo i po</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>adj:pl:gen:n:pos</t>
+          <t>conj</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>polskich</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>bo i po</t>
+          <t>. polskich w</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>adj:pl:acc:m2:pos</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>polskich</t>
+          <t>wielkimi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>. polskich w</t>
+          <t>plenipotent wielkimi dobrami</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m2:pos</t>
+          <t>adj:pl:inst:n:pos</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>adj:pl:inst:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>wielkimi</t>
+          <t>dobrami</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>plenipotent wielkimi dobrami</t>
+          <t>wielkimi dobrami ,</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>adj:pl:inst:n:pos</t>
+          <t>subst:pl:inst:n:pt</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>adj:pl:inst:m3:pos</t>
+          <t>subst:pl:inst:m3</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>dobrami</t>
+          <t>dzierżawił</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>wielkimi dobrami ,</t>
+          <t>to dzierżawił –</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>subst:pl:inst:n:pt</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m3</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dzierżawił</t>
+          <t>po</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>to dzierżawił –</t>
+          <t>jeździł po znajomych</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>prep:loc</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>znajomych</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>jeździł po znajomych</t>
+          <t>po znajomych i</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>prep:loc</t>
+          <t>subst:pl:loc:m1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>znajomych</t>
+          <t>różne</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>po znajomych i</t>
+          <t>wyśpiewywał różne arye</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m1</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>różne</t>
+          <t>arye</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>wyśpiewywał różne arye</t>
+          <t>różne arye krakowiaki</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>krakowiaki</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>różne arye krakowiaki</t>
+          <t>arye krakowiaki i</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:acc:m3</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -4536,17 +4536,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>krakowiaki</t>
+          <t>kołomyjki</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>arye krakowiaki i</t>
+          <t>i kołomyjki .</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m3</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>kołomyjki</t>
+          <t>na</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>i kołomyjki .</t>
+          <t>jeździł na koniu</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>prep:loc</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>prep:acc</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>znajomych</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>jeździł na koniu</t>
+          <t>po znajomych a</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>prep:loc</t>
+          <t>subst:pl:loc:m1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>prep:acc</t>
+          <t>subst:pl:loc:m3</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>znajomych</t>
+          <t>śpiewem</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>po znajomych a</t>
+          <t>ze śpiewem na</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m1</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m3</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>śpiewem</t>
+          <t>mojego</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ze śpiewem na</t>
+          <t>domu mojego Oyca</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>adj:sg:gen:m1:pos</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>mojego</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>domu mojego Oyca</t>
+          <t>mojego Oyca –</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m1:pos</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>mojego Oyca –</t>
+          <t>niej dużo szczegółów</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>niej dużo szczegółów</t>
+          <t>familii Oyca się</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Opowiadano</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>familii Oyca się</t>
+          <t>. Opowiadano mi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>imps:imperf</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>imps:perf</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Opowiadano</t>
+          <t>moich</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>. Opowiadano mi</t>
+          <t>pożycia moich wujostwa</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>imps:imperf</t>
+          <t>adj:pl:gen:n:pos</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>imps:perf</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>moich</t>
+          <t>oświecony</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>pożycia moich wujostwa</t>
+          <t>katafalk oświecony a</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>adj:pl:gen:n:pos</t>
+          <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>oświecony</t>
+          <t>Zaraz</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>katafalk oświecony a</t>
+          <t>. Zaraz na</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:m3:perf:aff</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m3:pos</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Zaraz</t>
+          <t>jej</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>. Zaraz na</t>
+          <t>opowiedziała jej czeladź</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>ppron3:sg:dat:f:ter:akc:npraep</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>ppron3:sg:gen:f:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>jej</t>
+          <t>czeladź</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>opowiedziała jej czeladź</t>
+          <t>jej czeladź ,</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ppron3:sg:dat:f:ter:akc:npraep</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ppron3:sg:gen:f:ter:akc:npraep</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>czeladź</t>
+          <t>nieboszczyka</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>jej czeladź ,</t>
+          <t>żałuje nieboszczyka -</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>subst:sg:gen:m1</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>subst:sg:nom:f</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>żałuje nieboszczyka -</t>
+          <t>do nieboszczyka przemawia</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>nieboszczyka</t>
+          <t>Tobą</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>do nieboszczyka przemawia</t>
+          <t>z Tobą Stasiu</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>ppron12:sg:inst:m1:sec</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:inst:f</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tobą</t>
+          <t>Stasiu</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>z Tobą Stasiu</t>
+          <t>Tobą Stasiu tyle</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ppron12:sg:inst:m1:sec</t>
+          <t>subst:sg:voc:m1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>subst:sg:inst:f</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Stasiu</t>
+          <t>tyle</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tobą Stasiu tyle</t>
+          <t>Stasiu tyle a</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>subst:sg:voc:m1</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>tyle</t>
+          <t>Zostawiasz</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Stasiu tyle a</t>
+          <t>! Zostawiasz mię</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>fin:sg:sec:imperf</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>impt:sg:sec:perf</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Zostawiasz</t>
+          <t>mię</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>! Zostawiasz mię</t>
+          <t>Zostawiasz mię z</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>fin:sg:sec:imperf</t>
+          <t>ppron12:sg:acc:f:pri:nakc</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>impt:sg:sec:perf</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>mię</t>
+          <t>kęsa</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Zostawiasz mię z</t>
+          <t>ani kęsa chleba</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ppron12:sg:acc:f:pri:nakc</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>subst:sg:acc:f</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>kęsa</t>
+          <t>zato</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ani kęsa chleba</t>
+          <t>– zato ,</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>imps:perf</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>zato</t>
+          <t>Ci</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>– zato ,</t>
+          <t>ażeby Ci Bóg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>ppron12:sg:dat:m1:sec:nakc</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>imps:perf</t>
+          <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ci</t>
+          <t>nieboszczyka</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ażeby Ci Bóg</t>
+          <t>okładać nieboszczyka –</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ppron12:sg:dat:m1:sec:nakc</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:pos</t>
+          <t>subst:sg:acc:m2</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>nieboszczyka</t>
+          <t>ich</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>okładać nieboszczyka –</t>
+          <t>obracają ich rodziny</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>ppron3:pl:gen:n:ter:akc:npraep</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m2</t>
+          <t>ppron3:pl:gen:f:ter:akc:npraep</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ich</t>
+          <t>rodziny</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>obracają ich rodziny</t>
+          <t>ich rodziny .</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ppron3:pl:gen:n:ter:akc:npraep</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ppron3:pl:gen:f:ter:akc:npraep</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>rodziny</t>
+          <t>Drugi</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ich rodziny .</t>
+          <t>. Drugi mój</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Drugi</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>. Drugi mój</t>
+          <t>Drugi mój wuj</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>wuj</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Drugi mój wuj</t>
+          <t>mój wuj Świerzawski</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>wuj</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>mój wuj Świerzawski</t>
+          <t>wuj Świerzawski kuzyn</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>wuj Świerzawski kuzyn</t>
+          <t>Świerzawski kuzyn Polanowskich</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>Polanowskich</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Świerzawski kuzyn Polanowskich</t>
+          <t>kuzyn Polanowskich z</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>adj:pl:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Polanowskich</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>kuzyn Polanowskich z</t>
+          <t>z Bełzkiego często</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>adj:sg:gen:n:pos</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>adj:pl:gen:f:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>Pań</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>z Bełzkiego często</t>
+          <t>od Pań oblegany</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:pl:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pań</t>
+          <t>oblegany</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>od Pań oblegany</t>
+          <t>Pań oblegany –</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>ppas:sg:nom:m1:imperf:aff</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>subst:pl:gen:n:ncol</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>oblegany</t>
+          <t>strojeniu</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Pań oblegany –</t>
+          <t>na strojeniu się</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:imperf:aff</t>
+          <t>ger:sg:loc:n:imperf:aff</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>strojeniu</t>
+          <t>trefieniu</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>na strojeniu się</t>
+          <t>i trefieniu a</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
+          <t>ger:sg:dat:n:imperf:aff</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
           <t>ger:sg:loc:n:imperf:aff</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>subst:sg:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>trefieniu</t>
+          <t>służąca</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>i trefieniu a</t>
+          <t>musiała służąca całą</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ger:sg:dat:n:imperf:aff</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ger:sg:loc:n:imperf:aff</t>
+          <t>pact:sg:nom:f:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>służąca</t>
+          <t>stać</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>musiała służąca całą</t>
+          <t>drogę stać na</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>inf:imperf</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>pact:sg:nom:f:imperf:aff</t>
+          <t>pred</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>stać</t>
+          <t>stopniach</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>drogę stać na</t>
+          <t>na stopniach powozu</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>inf:perf</t>
+          <t>subst:pl:loc:m3</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:pl:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>stopniach</t>
+          <t>Komornikowej</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>na stopniach powozu</t>
+          <t>Pani Komornikowej niepomięła</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>subst:pl:loc:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>subst:pl:loc:n:ncol</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Komornikowej</t>
+          <t>nauki</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pani Komornikowej niepomięła</t>
+          <t>pokończyli nauki ale</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>nauki</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>pokończyli nauki ale</t>
+          <t>. Niewiem jakim</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>fin:sg:pri:imperf</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>zniszczał</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>. Niewiem jakim</t>
+          <t>majątek zniszczał –</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>fin:sg:pri:imperf</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>zniszczał</t>
+          <t>Treterówną</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>majątek zniszczał –</t>
+          <t>siostrą Treterówną -</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>subst:sg:inst:f</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>nierobił</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>siostrą Treterówną -</t>
+          <t>wstydu nierobił .</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>subst:sg:inst:f</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>adj:sg:inst:f:pos</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>nierobił</t>
+          <t>Treterówną</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>wstydu nierobił .</t>
+          <t>siostrą Treterówną –</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:inst:f</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>adj:sg:inst:f:pos</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>napastował</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>siostrą Treterówną –</t>
+          <t>dziwak napastował ludzi</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>subst:sg:inst:f</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>adj:sg:inst:f:pos</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>napastował</t>
+          <t>nim</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>dziwak napastował ludzi</t>
+          <t>się nim Pan</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>ppron3:sg:inst:m1:ter:akc:praep</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>comp</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>nim</t>
+          <t>nierobił</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>się nim Pan</t>
+          <t>wstydu nierobił .</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>ppron3:sg:inst:m1:ter:akc:praep</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>nierobił</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>wstydu nierobił .</t>
+          <t>Ojciec móy sierota</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>oddany</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Ojciec móy sierota</t>
+          <t>sierota oddany do</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>oddany</t>
+          <t>podpodczas</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>sierota oddany do</t>
+          <t>– podpodczas wojen</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m3:perf:aff</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>podpodczas</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>– podpodczas wojen</t>
+          <t>do Sachsen Cobary</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>frag</t>
         </is>
       </c>
     </row>
@@ -5911,12 +5911,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>do Sachsen Cobary</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>frag</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>lat 14 .</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ign</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>ś</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>lat 14 .</t>
+          <t>mi ś .</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>brev:pun</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>aglt:sg:sec:imperf:nwok</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ś</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>mi ś .</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>brev:pun</t>
+          <t>subst:sg:inst:m1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>aglt:sg:sec:imperf:nwok</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Młodzieniaszkiem</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>z Oycem na</t>
+          <t>. Młodzieniaszkiem oddany</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Młodzieniaszkiem</t>
+          <t>oddany</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>. Młodzieniaszkiem oddany</t>
+          <t>Młodzieniaszkiem oddany do</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m1</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>oddany</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Młodzieniaszkiem oddany do</t>
+          <t>spacery w sąsiedztwa</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>prep:acc:nwok</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m3:perf:aff</t>
+          <t>prep:loc:nwok</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>sąsiedztwa</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>spacery w sąsiedztwa</t>
+          <t>w sąsiedztwa ,</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>prep:acc:nwok</t>
+          <t>subst:pl:acc:n:ncol</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>prep:loc:nwok</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>sąsiedztwa</t>
+          <t>najwięcej</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>w sąsiedztwa ,</t>
+          <t>a najwięcej czasu</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:ncol</t>
+          <t>num:sg:acc:m3:rec</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>najwięcej</t>
+          <t>podróże</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>a najwięcej czasu</t>
+          <t>czasu podróże i</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>num:sg:acc:m3:rec</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>podróże</t>
+          <t>Zarszynie</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>czasu podróże i</t>
+          <t>w Zarszynie i</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Zarszynie</t>
+          <t>zakończył</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>w Zarszynie i</t>
+          <t>wojskową zakończył śp</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>zakończył</t>
+          <t>około</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>wojskową zakończył śp</t>
+          <t>Oyciec około 1808</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>prep:gen</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>part</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>około</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Oyciec około 1808</t>
+          <t>około 1808 –</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
     </row>
@@ -6261,12 +6261,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>około 1808 –</t>
+          <t>albo 1809 –</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>dig</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>albo 1809 –</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>dig</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>wielu</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>we wielu bitwach</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>num:pl:loc:f:congr</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>num:pl:loc:n:congr:ncol</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>wielu</t>
+          <t>bitwach</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>we wielu bitwach</t>
+          <t>wielu bitwach –</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>num:pl:loc:f:congr</t>
+          <t>subst:pl:loc:f</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>num:pl:loc:n:congr:ncol</t>
+          <t>subst:pl:loc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>bitwach</t>
+          <t>Iglan</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>wielu bitwach –</t>
+          <t>pod Iglan był</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>subst:pl:loc:f</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>subst:pl:loc:n:ncol</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Iglan</t>
+          <t>pod</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>pod Iglan był</t>
+          <t>a pod Wagram</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>prep:inst:nwok</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>prep:acc:nwok</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>pod</t>
+          <t>Wagram</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>a pod Wagram</t>
+          <t>pod Wagram stojąc</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>prep:inst:nwok</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>prep:acc:nwok</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -6436,17 +6436,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Wagram</t>
+          <t>armat</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>pod Wagram stojąc</t>
+          <t>assekuracyi armat utracił</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:pl:gen:f</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>armat</t>
+          <t>kontuzjowany</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>assekuracyi armat utracił</t>
+          <t>sam kontuzjowany leżał</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>subst:pl:gen:f</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>kontuzjowany</t>
+          <t>nieżywy</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>sam kontuzjowany leżał</t>
+          <t>jak nieżywy –</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>adj:sg:nom:m1:pos</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>nieżywy</t>
+          <t>pieszy</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>jak nieżywy –</t>
+          <t>pułk pieszy Francuzów</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m1:pos</t>
+          <t>adj:sg:nom:m3:pos</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>fin:sg:ter:imperf</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>pieszy</t>
+          <t>Francuzów</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>pułk pieszy Francuzów</t>
+          <t>pieszy Francuzów przemaszerował</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>adj:sg:nom:m3:pos</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>fin:sg:ter:imperf</t>
+          <t>subst:pl:acc:m1</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Francuzów</t>
+          <t>przemaszerował</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>pieszy Francuzów przemaszerował</t>
+          <t>Francuzów przemaszerował po</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>praet:sg:m3:perf</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m1</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>przemaszerował</t>
+          <t>nim</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Francuzów przemaszerował po</t>
+          <t>po nim ,</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>praet:sg:m3:perf</t>
+          <t>ppron3:sg:loc:m1:ter:akc:praep</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>ppron3:sg:loc:m3:ter:akc:praep</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>nim</t>
+          <t>zwinięty</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>po nim ,</t>
+          <t>płaszcz zwinięty obwiązany</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m1:ter:akc:praep</t>
+          <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m3:ter:akc:praep</t>
+          <t>adj:sg:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -6636,12 +6636,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>zwinięty</t>
+          <t>obwiązany</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>płaszcz zwinięty obwiązany</t>
+          <t>zwinięty obwiązany przez</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m3:pos</t>
+          <t>ppas:sg:nom:m1:perf:aff</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>obwiązany</t>
+          <t>plecy</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>zwinięty obwiązany przez</t>
+          <t>i plecy ,</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:m3:perf:aff</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m1:perf:aff</t>
+          <t>subst:pl:nom:n:pt</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>plecy</t>
+          <t>małe</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>i plecy ,</t>
+          <t>tylko małe ukłucia</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>adj:pl:nom:n:pos</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:pt</t>
+          <t>adj:pl:acc:n:pos</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>małe</t>
+          <t>ukłucia</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>tylko małe ukłucia</t>
+          <t>małe ukłucia dostawały</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>adj:pl:nom:n:pos</t>
+          <t>subst:pl:nom:n:ncol</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>adj:pl:acc:n:pos</t>
+          <t>subst:pl:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ukłucia</t>
+          <t>dostawały</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>małe ukłucia dostawały</t>
+          <t>ukłucia dostawały się</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>subst:pl:nom:n:ncol</t>
+          <t>praet:pl:n:imperf</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:ncol</t>
+          <t>praet:pl:f:imperf</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>dostawały</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ukłucia dostawały się</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>praet:pl:n:imperf</t>
+          <t>adj:sg:inst:n:pos</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>praet:pl:f:imperf</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>wieś</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>własność wieś Siemiginów</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>adj:sg:inst:n:pos</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>wieś</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>własność wieś Siemiginów</t>
+          <t>wieś Siemiginów w</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>subst:sg:acc:f</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
     </row>
@@ -6836,22 +6836,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>wieś Siemiginów w</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>subst:pl:loc:n:ncol</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>powiadano</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>jak powiadano za</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>subst:pl:loc:n:ncol</t>
+          <t>imps:imperf</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>imps:perf</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>powiadano</t>
+          <t>indyki</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>jak powiadano za</t>
+          <t>za indyki których</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>imps:imperf</t>
+          <t>subst:pl:acc:m2</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>imps:perf</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>indyki</t>
+          <t>których</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>za indyki których</t>
+          <t>indyki których po</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m2</t>
+          <t>adj:pl:gen:m2:pos</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>adj:pl:gen:m1:pos</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>których</t>
+          <t>Lwowa</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>indyki których po</t>
+          <t>do Lwowa w</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m2:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>adj:pl:gen:m1:pos</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Lwowa</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>do Lwowa w</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>subst:pl:acc:n:pt</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:nom:m1</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>które</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>za które wyliczył</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:pt</t>
+          <t>adj:pl:acc:n:pos</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m1</t>
+          <t>adj:pl:acc:m3:pos</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>które</t>
+          <t>Pani</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>za które wyliczył</t>
+          <t>wyliczył Pani Rozwadowskiej</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>adj:pl:acc:n:pos</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>adj:pl:acc:m3:pos</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Pani</t>
+          <t>Rozwadowskiej</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>wyliczył Pani Rozwadowskiej</t>
+          <t>Pani Rozwadowskiej 10000</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Rozwadowskiej</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Pani Rozwadowskiej 10000</t>
+          <t>Rozwadowskiej 10000 dukatów</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>num:pl:acc:m2:rec</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>num:pl:gen:m3:congr</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>dukatów</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Rozwadowskiej 10000 dukatów</t>
+          <t>10000 dukatów .</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>num:pl:acc:m2:rec</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>num:pl:gen:m3:congr</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>dukatów</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>10000 dukatów .</t>
+          <t>brakowało 2000 dukatów</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>num:pl:gen:m2:congr</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>num:pl:acc:f:rec</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>dukatów</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>brakowało 2000 dukatów</t>
+          <t>2000 dukatów pełnłnomocnik</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>num:pl:gen:m2:congr</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>num:pl:acc:f:rec</t>
+          <t>subst:pl:gen:m3</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>dukatów</t>
+          <t>Rozwadowskiej</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2000 dukatów pełnłnomocnik</t>
+          <t>Pani Rozwadowskiej nie</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m3</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Rozwadowskiej</t>
+          <t>zmieniał</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Pani Rozwadowskiej nie</t>
+          <t>właściciel zmieniał –</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -7211,22 +7211,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>zmieniał</t>
+          <t>wójtem</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>właściciel zmieniał –</t>
+          <t>z wójtem na</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:inst:m1</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>wójtem</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>z wójtem na</t>
+          <t>sposób w fizyczne</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m1</t>
+          <t>prep:acc:nwok</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>prep:loc:nwok</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>sposób w fizyczne</t>
+          <t>fizyczne we posiadanie</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>prep:acc:nwok</t>
+          <t>prep:acc:wok</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>prep:loc:nwok</t>
+          <t>prep:loc:wok</t>
         </is>
       </c>
     </row>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>osypami</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>fizyczne we posiadanie</t>
+          <t>pańszczyźnianymi osypami daninami</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>prep:acc:wok</t>
+          <t>subst:pl:inst:m3</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>prep:loc:wok</t>
+          <t>subst:pl:inst:n:ncol</t>
         </is>
       </c>
     </row>
@@ -7311,22 +7311,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>osypami</t>
+          <t>daninami</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>pańszczyźnianymi osypami daninami</t>
+          <t>osypami daninami od</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
+          <t>subst:pl:inst:f</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
           <t>subst:pl:inst:m3</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>subst:pl:inst:n:ncol</t>
         </is>
       </c>
     </row>
@@ -7336,17 +7336,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>daninami</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>osypami daninami od</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>subst:pl:inst:f</t>
+          <t>adj:pl:inst:m1:pos</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7361,22 +7361,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>adj:pl:inst:m1:pos</t>
+          <t>praet:sg:m1:imperf</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>subst:pl:inst:m3</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -7386,22 +7386,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>któremi obeymował Dziedzictwo</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>praet:sg:m1:imperf</t>
+          <t>subst:sg:acc:f</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:dat:f</t>
         </is>
       </c>
     </row>
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>pierwszey</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>policyjną pierwszey instantacyi</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>subst:sg:acc:f</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>subst:sg:dat:f</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>pierwszey</t>
+          <t>Zaś</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>policyjną pierwszey instantacyi</t>
+          <t>. Zaś daniny</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>conj</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>prep:gen</t>
         </is>
       </c>
     </row>
@@ -7461,22 +7461,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zaś</t>
+          <t>daniny</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>. Zaś daniny</t>
+          <t>Zaś daniny w</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>conj</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>prep:gen</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>daniny</t>
+          <t>robocie</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Zaś daniny w</t>
+          <t>w robocie odbywali</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>robocie</t>
+          <t>posiadanych</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>w robocie odbywali</t>
+          <t>ilości posiadanych morgów</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>ppas:pl:gen:m3:imperf:aff</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>ppas:pl:gen:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -7536,22 +7536,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>posiadanych</t>
+          <t>bydłem</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>ilości posiadanych morgów</t>
+          <t>dni bydłem co</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:imperf:aff</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>ppas:pl:gen:m3:perf:aff</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>bydłem</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>dni bydłem co</t>
+          <t>Oprócz tego z</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>adj:sg:gen:m3:pos</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -7586,22 +7586,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>owsa</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Oprócz tego z</t>
+          <t>ilość owsa –</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>adj:sg:gen:m3:pos</t>
+          <t>subst:sg:gen:m3</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -7611,22 +7611,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>owsa</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ilość owsa –</t>
+          <t>tego ci i</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m3</t>
+          <t>adj:pl:nom:m1:pos</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
     </row>
@@ -7636,22 +7636,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>zwane</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>tego ci i</t>
+          <t>tak zwane spaśne</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>adj:pl:nom:m1:pos</t>
+          <t>ppas:sg:acc:n:imperf:aff</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>ppas:pl:acc:m3:imperf:aff</t>
         </is>
       </c>
     </row>
@@ -7661,22 +7661,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>zwane</t>
+          <t>spaśne</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>tak zwane spaśne</t>
+          <t>zwane spaśne -</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:n:imperf:aff</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>ppas:pl:acc:m3:imperf:aff</t>
+          <t>adj:pl:nom:f:pos</t>
         </is>
       </c>
     </row>
@@ -7686,22 +7686,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>spaśne</t>
+          <t>kury</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>zwane spaśne -</t>
+          <t>- kury kapłony</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>adj:pl:nom:f:pos</t>
+          <t>subst:pl:nom:f</t>
         </is>
       </c>
     </row>
@@ -7711,22 +7711,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>kury</t>
+          <t>kapłony</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>- kury kapłony</t>
+          <t>kury kapłony kaczki</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:acc:m2</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>subst:pl:nom:f</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -7736,17 +7736,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>kapłony</t>
+          <t>kaczki</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>kury kapłony kaczki</t>
+          <t>kapłony kaczki i</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>subst:pl:acc:m2</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>kaczki</t>
+          <t>gęsi</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>kapłony kaczki i</t>
+          <t>i gęsi ,</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7786,22 +7786,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>gęsi</t>
+          <t>jaja</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>i gęsi ,</t>
+          <t>, jaja –</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>subst:pl:acc:n:ncol</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:nom:f</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>jaja</t>
+          <t>pastwiska</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>, jaja –</t>
+          <t>oni pastwiska dla</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>subst:sg:nom:f</t>
+          <t>subst:sg:gen:n:ncol</t>
         </is>
       </c>
     </row>
@@ -7836,22 +7836,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>pastwiska</t>
+          <t>pastwisko</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>oni pastwiska dla</t>
+          <t>- pastwisko ratował</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>subst:pl:acc:n:ncol</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>subst:sg:gen:n:ncol</t>
+          <t>adv:pos</t>
         </is>
       </c>
     </row>
@@ -7861,22 +7861,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>pastwisko</t>
+          <t>biedzie</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>- pastwisko ratował</t>
+          <t>w biedzie zbożem</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:sg:loc:f</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>adv:pos</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -7886,22 +7886,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>biedzie</t>
+          <t>zbożem</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>w biedzie zbożem</t>
+          <t>biedzie zbożem a</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>subst:sg:loc:f</t>
+          <t>subst:sg:inst:n:ncol</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -7911,22 +7911,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>zbożem</t>
+          <t>inwentarzem</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>biedzie zbożem a</t>
+          <t>nawet inwentarzem .</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>subst:sg:inst:n:ncol</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:sg:inst:m1</t>
         </is>
       </c>
     </row>
@@ -7936,22 +7936,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>inwentarzem</t>
+          <t>Wieleż</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>nawet inwentarzem .</t>
+          <t>. Wieleż to</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>num:pl:acc:m3:rec</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m1</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
     </row>
@@ -7961,22 +7961,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Wieleż</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>. Wieleż to</t>
+          <t>Wieleż to razy</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>num:pl:acc:m3:rec</t>
+          <t>part</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>pred</t>
         </is>
       </c>
     </row>
@@ -7986,22 +7986,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>Dziadka</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Wieleż to razy</t>
+          <t>. Dziadka Ostaszewskigo</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>subst:sg:acc:m1</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:sg:gen:m1</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Dziadka</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>. Dziadka Ostaszewskigo</t>
+          <t>Dziadka Ostaszewskigo jak</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8036,22 +8036,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Dziadka Ostaszewskigo jak</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m1</t>
+          <t>subst:pl:nom:m1</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>subst:sg:gen:m1</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
     </row>
@@ -8061,22 +8061,22 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>najlepsze</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>Długim najlepsze mają</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m1</t>
+          <t>adj:sg:acc:m2:sup</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>adj:sg:acc:n:sup</t>
         </is>
       </c>
     </row>
@@ -8086,22 +8086,22 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>najlepsze</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Długim najlepsze mają</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>adj:sg:acc:m2:sup</t>
+          <t>subst:sg:nom:n:ncol</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>adj:sg:acc:n:sup</t>
+          <t>subst:pl:acc:f</t>
         </is>
       </c>
     </row>
@@ -8111,22 +8111,22 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>robocze</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>bydle robocze –</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>subst:sg:nom:n:ncol</t>
+          <t>adj:sg:nom:n:pos</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>subst:pl:acc:f</t>
+          <t>adj:pl:acc:f:pos</t>
         </is>
       </c>
     </row>
@@ -8136,22 +8136,22 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>robocze</t>
+          <t>żalili</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>bydle robocze –</t>
+          <t>Dłużanie żalili się</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>adj:sg:nom:n:pos</t>
+          <t>praet:pl:m1:imperf</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>adj:pl:acc:f:pos</t>
+          <t>praet:pl:m1:perf</t>
         </is>
       </c>
     </row>
@@ -8161,22 +8161,22 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>żalili</t>
+          <t>koni</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Dłużanie żalili się</t>
+          <t>dla koni –</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>praet:pl:m1:imperf</t>
+          <t>subst:pl:gen:m2</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>praet:pl:m1:perf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -8186,22 +8186,22 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>koni</t>
+          <t>Oddzieli</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>dla koni –</t>
+          <t>– Oddzieli śp</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m2</t>
+          <t>fin:sg:ter:perf</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>praet:pl:m1:perf</t>
         </is>
       </c>
     </row>
@@ -8211,22 +8211,22 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Oddzieli</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>– Oddzieli śp</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>fin:sg:ter:perf</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>praet:pl:m1:perf</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -8236,22 +8236,22 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>adj:sg:gen:f:pos</t>
+          <t>subst:sg:loc:m3</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>subst:sg:inst:m3</t>
         </is>
       </c>
     </row>
@@ -8261,22 +8261,22 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>adv:sup</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>subst:sg:inst:m3</t>
+          <t>subst:pl:nom:m3</t>
         </is>
       </c>
     </row>
@@ -8286,22 +8286,22 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>kmieci</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>dla kmieci ,</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>adv:sup</t>
+          <t>subst:pl:gen:m1</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>subst:pl:nom:m3</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -8311,22 +8311,22 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>kmieci</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>dla kmieci ,</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>subst:pl:gen:m1</t>
+          <t>praet:sg:m3:imperf</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>subst:sg:gen:f</t>
+          <t>praet:sg:m1:perf</t>
         </is>
       </c>
     </row>
@@ -8336,22 +8336,22 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>Niebył to obowiązek</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>praet:sg:m3:imperf</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>praet:sg:m1:perf</t>
+          <t>subst:sg:acc:n:ncol</t>
         </is>
       </c>
     </row>
@@ -8361,22 +8361,22 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>obowiązek</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Niebył to obowiązek</t>
+          <t>to obowiązek spełniony</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>subst:sg:nom:m3</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>subst:sg:acc:n:ncol</t>
+          <t>subst:sg:acc:m3</t>
         </is>
       </c>
     </row>
@@ -8386,22 +8386,22 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>obowiązek</t>
+          <t>spełniony</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>to obowiązek spełniony</t>
+          <t>obowiązek spełniony ale</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>subst:sg:nom:m3</t>
+          <t>ppas:sg:nom:m3:perf:aff</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>subst:sg:acc:m3</t>
+          <t>ppas:sg:acc:m3:perf:aff</t>
         </is>
       </c>
     </row>
@@ -8411,22 +8411,22 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>spełniony</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>obowiązek spełniony ale</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>ppas:sg:nom:m3:perf:aff</t>
+          <t>adj:sg:gen:f:pos</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ppas:sg:acc:m3:perf:aff</t>
+          <t>subst:sg:gen:f</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>subst:sg:loc:m3</t>
+          <t>subst:sg:loc:m1</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
